--- a/src/main/resources/BlogTest.xlsx
+++ b/src/main/resources/BlogTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
   <si>
     <t>Password</t>
   </si>
@@ -547,10 +547,10 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
